--- a/Assets/StreamingAssets/7_Chen_Quan.xlsx
+++ b/Assets/StreamingAssets/7_Chen_Quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10BF46-7F32-194F-8A34-697C4C7E37C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3E4DB-711E-1940-995D-8C25559F0336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,15 +160,7 @@
     <t>Dee-Thinking2</t>
   </si>
   <si>
-    <t>Quan-Regualr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quan-Pity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quna-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -640,7 +632,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -710,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -739,10 +731,10 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -759,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -779,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -799,10 +791,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -819,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -845,10 +837,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -865,10 +857,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -885,10 +877,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -905,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -925,10 +917,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -951,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -971,10 +963,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -991,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1011,10 +1003,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1028,7 +1020,7 @@
     </row>
     <row r="17" spans="1:12" ht="34">
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1042,10 +1034,10 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>14</v>

--- a/Assets/StreamingAssets/7_Chen_Quan.xlsx
+++ b/Assets/StreamingAssets/7_Chen_Quan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3E4DB-711E-1940-995D-8C25559F0336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22847D2-CD39-054A-8307-F76DEB313A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I stayed at the training square practicing martial arts until the Shen hour (around 3–5 PM).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After that, I returned to my room to rest. As the evening banquet approached, I set out for the banquet hall.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,15 +220,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>His answers were calm and composed—utterly unshaken, even with no one to back up his alibi.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Goto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StoryScript8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I stayed at the training square practicing martial arts until the 3 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His answers were calm and composed——utterly unshaken, even with no one to back up his alibi.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -837,7 +837,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -857,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -877,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -917,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -963,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1003,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1018,9 +1018,9 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="34">
+    <row r="17" spans="1:12" ht="51">
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>14</v>
